--- a/temp/estadisticas.xlsx
+++ b/temp/estadisticas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Usuario</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t>Risaralda</t>
+  </si>
+  <si>
+    <t>2025-03-17 13:35:04</t>
   </si>
   <si>
     <t>2025-03-17 13:32:08</t>
@@ -419,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,25 +465,22 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2">
-        <v>19</v>
-      </c>
       <c r="F2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -491,22 +491,25 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
       <c r="F3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -517,25 +520,22 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
-      <c r="E4">
-        <v>402</v>
-      </c>
       <c r="F4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -546,25 +546,25 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
       </c>
       <c r="E5">
-        <v>5306</v>
+        <v>402</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -575,24 +575,53 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>15</v>
       </c>
       <c r="E6">
+        <v>5306</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
         <v>24</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>2</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>8</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>20</v>
       </c>
     </row>
